--- a/src/analysis_examples/circadb/results_jtk/cosinor_10544660_osbpl3_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10544660_osbpl3_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.16431019778094885, 0.26791531091824433]</t>
+          <t>[0.16459736963670296, 0.2676281390624902]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.190775760801955e-08</v>
+        <v>1.997289533761659e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.190775760801955e-08</v>
+        <v>1.997289533761659e-08</v>
       </c>
       <c r="O2" t="n">
         <v>-0.779894872963232</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.42987646979376604, 0.48223305179840414]</t>
+          <t>[0.42990082892792186, 0.4822086926642483]</t>
         </is>
       </c>
       <c r="U2" t="n">
